--- a/Data/8. 포지션제안_관계.xlsx
+++ b/Data/8. 포지션제안_관계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\학교\3학년(4.5)(2023)\2학기\데이터베이스프로그래밍\과제\팀프로젝트\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\고병철\Desktop\GitKraken\DatabaseProgrammingTeamProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197D0353-F212-42B9-89AA-5722ED343BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C651E5E1-314D-40A6-86EC-327AFF109A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="210" windowWidth="10140" windowHeight="10170" xr2:uid="{2B1968A9-B67F-401E-B6B5-C089ABE66652}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B1968A9-B67F-401E-B6B5-C089ABE66652}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34908BFA-3977-472C-B1EF-5863B92AA69D}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -957,7 +957,7 @@
         <v>43</v>
       </c>
       <c r="D2" s="3">
-        <v>45096</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -971,7 +971,7 @@
         <v>45</v>
       </c>
       <c r="D3" s="3">
-        <v>45072</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -985,7 +985,7 @@
         <v>47</v>
       </c>
       <c r="D4" s="3">
-        <v>45079</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -999,7 +999,7 @@
         <v>49</v>
       </c>
       <c r="D5" s="3">
-        <v>45131</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>51</v>
       </c>
       <c r="D6" s="3">
-        <v>45119</v>
+        <v>45296</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -1028,7 +1028,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="3">
-        <v>45100</v>
+        <v>45297</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1042,7 +1042,7 @@
         <v>55</v>
       </c>
       <c r="D8" s="3">
-        <v>45132</v>
+        <v>45298</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1056,7 +1056,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="3">
-        <v>45086</v>
+        <v>45299</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1070,7 +1070,7 @@
         <v>59</v>
       </c>
       <c r="D10" s="3">
-        <v>45136</v>
+        <v>45300</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1084,7 +1084,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="3">
-        <v>45081</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1098,7 +1098,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="3">
-        <v>45121</v>
+        <v>45302</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1112,7 +1112,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="3">
-        <v>45133</v>
+        <v>45303</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1126,7 +1126,7 @@
         <v>67</v>
       </c>
       <c r="D14" s="3">
-        <v>45070</v>
+        <v>45304</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1140,7 +1140,7 @@
         <v>69</v>
       </c>
       <c r="D15" s="3">
-        <v>45091</v>
+        <v>45305</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1154,7 +1154,7 @@
         <v>71</v>
       </c>
       <c r="D16" s="3">
-        <v>45129</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1168,7 +1168,7 @@
         <v>73</v>
       </c>
       <c r="D17" s="3">
-        <v>45085</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1182,7 +1182,7 @@
         <v>75</v>
       </c>
       <c r="D18" s="3">
-        <v>45123</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1196,7 +1196,7 @@
         <v>77</v>
       </c>
       <c r="D19" s="3">
-        <v>45099</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1210,7 +1210,7 @@
         <v>79</v>
       </c>
       <c r="D20" s="3">
-        <v>45114</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1224,7 +1224,7 @@
         <v>81</v>
       </c>
       <c r="D21" s="3">
-        <v>45097</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1238,7 +1238,7 @@
         <v>83</v>
       </c>
       <c r="D22" s="3">
-        <v>45113</v>
+        <v>45312</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1252,7 +1252,7 @@
         <v>85</v>
       </c>
       <c r="D23" s="3">
-        <v>45093</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1266,7 +1266,7 @@
         <v>87</v>
       </c>
       <c r="D24" s="3">
-        <v>45067</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1280,7 +1280,7 @@
         <v>89</v>
       </c>
       <c r="D25" s="3">
-        <v>45135</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1294,7 +1294,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="3">
-        <v>45088</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1308,7 +1308,7 @@
         <v>93</v>
       </c>
       <c r="D27" s="3">
-        <v>45127</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1322,7 +1322,7 @@
         <v>95</v>
       </c>
       <c r="D28" s="3">
-        <v>45104</v>
+        <v>45318</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
         <v>97</v>
       </c>
       <c r="D29" s="3">
-        <v>45125</v>
+        <v>45319</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1350,7 +1350,7 @@
         <v>99</v>
       </c>
       <c r="D30" s="3">
-        <v>45095</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1364,7 +1364,7 @@
         <v>101</v>
       </c>
       <c r="D31" s="3">
-        <v>45116</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1378,7 +1378,7 @@
         <v>103</v>
       </c>
       <c r="D32" s="3">
-        <v>45073</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1392,7 +1392,7 @@
         <v>105</v>
       </c>
       <c r="D33" s="3">
-        <v>45106</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1406,7 +1406,7 @@
         <v>107</v>
       </c>
       <c r="D34" s="3">
-        <v>45118</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1420,7 +1420,7 @@
         <v>109</v>
       </c>
       <c r="D35" s="3">
-        <v>45090</v>
+        <v>45325</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1434,7 +1434,7 @@
         <v>111</v>
       </c>
       <c r="D36" s="3">
-        <v>45111</v>
+        <v>45326</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1448,7 +1448,7 @@
         <v>113</v>
       </c>
       <c r="D37" s="3">
-        <v>45083</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1462,7 +1462,7 @@
         <v>115</v>
       </c>
       <c r="D38" s="3">
-        <v>45110</v>
+        <v>45328</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1476,7 +1476,7 @@
         <v>117</v>
       </c>
       <c r="D39" s="3">
-        <v>45102</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1490,7 +1490,7 @@
         <v>119</v>
       </c>
       <c r="D40" s="3">
-        <v>45108</v>
+        <v>45330</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1504,7 +1504,7 @@
         <v>121</v>
       </c>
       <c r="D41" s="3">
-        <v>45068</v>
+        <v>45331</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1518,7 +1518,7 @@
         <v>123</v>
       </c>
       <c r="D42" s="3">
-        <v>45138</v>
+        <v>45332</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1532,7 +1532,7 @@
         <v>125</v>
       </c>
       <c r="D43" s="3">
-        <v>45098</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1546,7 +1546,7 @@
         <v>127</v>
       </c>
       <c r="D44" s="3">
-        <v>45135</v>
+        <v>45334</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1560,7 +1560,7 @@
         <v>129</v>
       </c>
       <c r="D45" s="3">
-        <v>45086</v>
+        <v>45335</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1574,7 +1574,7 @@
         <v>131</v>
       </c>
       <c r="D46" s="3">
-        <v>45123</v>
+        <v>45336</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1588,7 +1588,7 @@
         <v>103</v>
       </c>
       <c r="D47" s="3">
-        <v>45099</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1602,7 +1602,7 @@
         <v>134</v>
       </c>
       <c r="D48" s="3">
-        <v>45114</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1616,7 +1616,7 @@
         <v>136</v>
       </c>
       <c r="D49" s="3">
-        <v>45097</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1630,7 +1630,7 @@
         <v>138</v>
       </c>
       <c r="D50" s="3">
-        <v>45113</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1644,7 +1644,7 @@
         <v>140</v>
       </c>
       <c r="D51" s="3">
-        <v>45093</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
